--- a/template/FRA/country_data.xlsx
+++ b/template/FRA/country_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Sites/polio-risk/template/FRA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Sites/polio-risk-assessment/template/FRA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFA0AFD-70B9-444D-BB68-30BF127E4B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD371FA-9EB9-814F-8B3A-0268E2F027F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="22780" windowHeight="14660" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
   </bookViews>
@@ -1166,9 +1166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1206,7 +1206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1312,7 +1312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1454,7 +1454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1521,18 +1521,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BC92D02-843F-244F-9460-E090EF2C7C0A}">
-          <x14:formula1>
-            <xm:f>_ListValues!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/template/FRA/country_data.xlsx
+++ b/template/FRA/country_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Sites/polio-risk-assessment/template/FRA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paho-my.sharepoint.com/personal/caine_paho_org/Documents/WDC/Polio/2024/AR municipal/polio-risk-assessment-main/template/FRA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD371FA-9EB9-814F-8B3A-0268E2F027F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{EBD371FA-9EB9-814F-8B3A-0268E2F027F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98EF216A-03BC-4E7C-A279-40236AE7B39F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22780" windowHeight="14660" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" firstSheet="1" activeTab="7" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
   </bookViews>
   <sheets>
     <sheet name="1-General" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
   <si>
     <t>Sarampión</t>
   </si>
@@ -114,25 +114,12 @@
     <t>Population totale</t>
   </si>
   <si>
-    <t>Si la population de moins de 15 ans est &lt;100 000 habitants, y a-t-il eu des cas de PFA en 2023 ?</t>
-  </si>
-  <si>
     <t>Couverture administrative de la polio 3 par municipalité</t>
   </si>
   <si>
-    <t xml:space="preserve">Si le pays a mené une campagne de vaccination contre la poliomyélite entre 2019 et 2023, une couverture supérieure à 95 % a-t-elle été atteinte dans la municipalité ? </t>
-  </si>
-  <si>
     <t>Unités de notification</t>
   </si>
   <si>
-    <t>Pourcentage d'unités notificatrices qui ont envoyé des informations toutes les semaines au cours de la période évaluée (2023)</t>
-  </si>
-  <si>
-    <t>Surveillance PFA
-(pour les communes comptant &gt;100 000 enfants de moins de 15 ans OU les communes comptant &lt;100 000 enfants de moins de 15 ans qui ont eu des cas de PFA en 2023)</t>
-  </si>
-  <si>
     <t>Taux PFA</t>
   </si>
   <si>
@@ -148,10 +135,6 @@
     <t>% de cas avec suivi à 60 jours</t>
   </si>
   <si>
-    <t>Recherche institutionnelle active_x000D_
-(pour les communes comptant &lt;100 000 enfants de moins de 15 ans SANS cas de PFA en 2023)</t>
-  </si>
-  <si>
     <t>Population ayant accès aux services de base en eau potable</t>
   </si>
   <si>
@@ -203,15 +186,6 @@
     <t>Population &lt;1 an</t>
   </si>
   <si>
-    <t>Si la population de moins de 15 ans est &lt;100 000 habitants, y aura-t-il des cas de PFA en 2023 ?</t>
-  </si>
-  <si>
-    <t>Adm. Polio3 Couverture 2019, 2020, 2021, 2022 et 2023</t>
-  </si>
-  <si>
-    <t>Si le pays a mené une campagne de vaccination contre la poliomyélite entre 2019 et 2023, une couverture supérieure à 95 % a-t-elle été atteinte dans la municipalité ?</t>
-  </si>
-  <si>
     <t>Pourcentage d'unités notificatrices qui ont envoyé des informations toutes les semaines au cours de la période évaluée</t>
   </si>
   <si>
@@ -239,18 +213,9 @@
     <t>Nombre d'enfants de moins de 15 ans dans la commune.</t>
   </si>
   <si>
-    <t>Pour les communes comptant moins de 100 000 enfants de moins de 15 ans, déterminez si des cas de PFA se sont produits en 2023.</t>
-  </si>
-  <si>
     <t>Couverture administrative pour Polio3 pour l’année correspondante</t>
   </si>
   <si>
-    <t>Pour les pays dans lesquels une campagne de vaccination contre la polio a été menée entre 2019 et 2023, précisez si la couverture obtenue dans la commune était &gt;95 %</t>
-  </si>
-  <si>
-    <t>Taux PFA pour la commune en 2023</t>
-  </si>
-  <si>
     <t>Pourcentage de cas de PFA signalés dans les 14 jours suivant le début de la paralysie.</t>
   </si>
   <si>
@@ -305,18 +270,9 @@
     <t>Si la municipalité n'a pas d'unités déclarantes, zéro doit être inscrit.</t>
   </si>
   <si>
-    <t>Cette cellule ne doit être remplie que pour les communes comptant &gt;100 000 enfants de moins de 15 ans ou les communes comptant &lt;100 000 mais qui ont eu des cas de PFA en 2023. Pour les communes comptant &lt;100 000 enfants de moins de 15 ans et qui n'ont pas eu de cas de PFA en 2023. 2023 , la cellule deviendra grise et vous n'aurez plus besoin de renseigner aucune information.</t>
-  </si>
-  <si>
-    <t>Cette cellule ne doit être complétée que pour les communes comptant &lt;100 000 enfants de moins de 15 ans et qui n'ont eu aucun cas de PFA en 2023.</t>
-  </si>
-  <si>
     <t>Si vous ne connaissez pas le pourcentage, vous pouvez mettre une estimation</t>
   </si>
   <si>
-    <t>% de cas de PFA investiguee (ayant fait l'objet d'une enquête) dans les 48 heures ( &lt; 48 heures)</t>
-  </si>
-  <si>
     <t>épidémie</t>
   </si>
   <si>
@@ -329,9 +285,6 @@
     <t>Niveau sous-national</t>
   </si>
   <si>
-    <t>Pourcentage de couverture avec 2eme dose Vaccin antipoliomyélitique inactivé (VPI2)  2023</t>
-  </si>
-  <si>
     <t>Dans les municipalités comptant &lt;100 000 enfants de moins de 15 ans et qui ne présentaient pas de cas de PFA, des recherches actives institutionnelles  ont-elles été effectuées dans au moins un établissement de santé de la municipalité ?</t>
   </si>
   <si>
@@ -344,12 +297,6 @@
     <t>Tipo de information</t>
   </si>
   <si>
-    <t>Couverture VPI2 2023</t>
-  </si>
-  <si>
-    <t>Couverture administrative de l’VPI2 en 2023</t>
-  </si>
-  <si>
     <t>Si VPI2 n’a pas été saisi, saisissez 0 (zéro)</t>
   </si>
   <si>
@@ -369,6 +316,40 @@
   </si>
   <si>
     <t>FRA</t>
+  </si>
+  <si>
+    <t>% de cas de PFA investiguee (ayant fait l'objet d'une enquête) dans les 48 heures 
+( &lt; 48 heures)</t>
+  </si>
+  <si>
+    <t>Adm. Polio3 Couverture 2020, 2021, 2022, 2023 et 2024</t>
+  </si>
+  <si>
+    <t>Si la population de moins de 15 ans est &lt;100 000 habitants, y aura-t-il des cas de PFA en 2024 ?</t>
+  </si>
+  <si>
+    <t>Couverture VPI2 2024</t>
+  </si>
+  <si>
+    <t>Si le pays a mené une campagne de vaccination contre la poliomyélite entre 2020 et 2024, une couverture supérieure à 95 % a-t-elle été atteinte dans la municipalité ?</t>
+  </si>
+  <si>
+    <t>Pour les communes comptant moins de 100 000 enfants de moins de 15 ans, déterminez si des cas de PFA se sont produits en 2024.</t>
+  </si>
+  <si>
+    <t>Couverture administrative de l’VPI2 pour l’année correspondante</t>
+  </si>
+  <si>
+    <t>Pour les pays dans lesquels une campagne de vaccination contre la polio a été menée entre 2020 et 2024, précisez si la couverture obtenue dans la commune était &gt;95 %</t>
+  </si>
+  <si>
+    <t>Taux PFA pour la commune en 2024</t>
+  </si>
+  <si>
+    <t>Cette cellule ne doit être remplie que pour les communes comptant &gt;100 000 enfants de moins de 15 ans ou les communes comptant &lt;100 000 mais qui ont eu des cas de PFA en 2024. Pour les communes comptant &lt;100 000 enfants de moins de 15 ans et qui n'ont pas eu de cas de PFA en 2024, la cellule deviendra grise et vous n'aurez plus besoin de renseigner aucune information.</t>
+  </si>
+  <si>
+    <t>Cette cellule ne doit être complétée que pour les communes comptant &lt;100 000 enfants de moins de 15 ans et qui n'ont eu aucun cas de PFA en 2024.</t>
   </si>
 </sst>
 </file>
@@ -1166,9 +1147,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1206,7 +1187,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1312,7 +1293,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1454,7 +1435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1464,17 +1445,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18904028-F9F6-3046-9356-B730934F1CDF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="56.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,33 +1463,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1532,7 +1515,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
@@ -1544,7 +1527,7 @@
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -1552,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
@@ -1570,7 +1553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="5"/>
@@ -1580,7 +1563,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="5"/>
@@ -1590,7 +1573,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="5"/>
@@ -1600,7 +1583,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="5"/>
@@ -1610,7 +1593,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="5"/>
@@ -1620,7 +1603,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="5"/>
@@ -1639,11 +1622,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87362FD8-F1C8-0142-963D-AD6273C5898D}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N2"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
@@ -1656,7 +1639,7 @@
     <col min="15" max="15" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>15</v>
       </c>
@@ -1664,7 +1647,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>18</v>
@@ -1678,24 +1661,27 @@
       <c r="G1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="57" t="str">
+        <f>"Si la population de moins de 15 ans est &lt;100 000 habitants, y a-t-il eu des cas de PFA en "&amp;'1-General'!B3&amp;"?"</f>
+        <v>Si la population de moins de 15 ans est &lt;100 000 habitants, y a-t-il eu des cas de PFA en 2024?</v>
+      </c>
+      <c r="I1" s="53" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>24</v>
       </c>
       <c r="J1" s="53"/>
       <c r="K1" s="53"/>
       <c r="L1" s="53"/>
       <c r="M1" s="53"/>
-      <c r="N1" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="104.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="53" t="str">
+        <f>"Pourcentage de couverture avec 2eme dose Vaccin antipoliomyélitique inactivé (VPI2)  "&amp;'1-General'!B3</f>
+        <v>Pourcentage de couverture avec 2eme dose Vaccin antipoliomyélitique inactivé (VPI2)  2024</v>
+      </c>
+      <c r="O1" s="53" t="str">
+        <f>"Si le pays a mené une campagne de vaccination contre la poliomyélite entre "&amp;'1-General'!B3-4&amp;"-"&amp;'1-General'!B3&amp;", une couverture supérieure à 95 % a-t-elle été atteinte dans la municipalité ?"</f>
+        <v>Si le pays a mené une campagne de vaccination contre la poliomyélite entre 2020-2024, une couverture supérieure à 95 % a-t-elle été atteinte dans la municipalité ?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="56"/>
@@ -1705,24 +1691,29 @@
       <c r="G2" s="56"/>
       <c r="H2" s="58"/>
       <c r="I2" s="12">
-        <v>2019</v>
+        <f>'1-General'!B3-4</f>
+        <v>2020</v>
       </c>
       <c r="J2" s="12">
-        <v>2020</v>
+        <f>'1-General'!B3-3</f>
+        <v>2021</v>
       </c>
       <c r="K2" s="12">
-        <v>2021</v>
+        <f>'1-General'!B3-2</f>
+        <v>2022</v>
       </c>
       <c r="L2" s="12">
-        <v>2022</v>
+        <f>'1-General'!B3-1</f>
+        <v>2023</v>
       </c>
       <c r="M2" s="12">
-        <v>2023</v>
+        <f>'1-General'!B3</f>
+        <v>2024</v>
       </c>
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="2"/>
@@ -1739,7 +1730,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="2"/>
@@ -1756,7 +1747,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="2"/>
@@ -1773,7 +1764,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="2"/>
@@ -1790,7 +1781,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="2"/>
@@ -1807,7 +1798,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="2"/>
@@ -1854,22 +1845,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24FC60A-8114-B04C-B5D4-941061AFF1F9}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" customWidth="1"/>
-    <col min="10" max="14" width="18.83203125" customWidth="1"/>
+    <col min="10" max="11" width="18.83203125" customWidth="1"/>
+    <col min="12" max="12" width="18.25" customWidth="1"/>
+    <col min="13" max="14" width="18.83203125" customWidth="1"/>
     <col min="15" max="15" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="113" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>15</v>
       </c>
@@ -1877,7 +1870,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>18</v>
@@ -1891,24 +1884,31 @@
       <c r="G1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="57" t="s">
-        <v>23</v>
+      <c r="H1" s="57" t="str">
+        <f>"Si la population de moins de 15 ans est &lt;100 000 habitants, y a-t-il eu des cas de PFA en "&amp;'1-General'!B3&amp;"?"</f>
+        <v>Si la population de moins de 15 ans est &lt;100 000 habitants, y a-t-il eu des cas de PFA en 2024?</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="J1" s="61" t="str">
+        <f>"Surveillance PFA
+(pour les communes comptant &gt;100 000 enfants de moins de 15 ans OU les communes comptant &lt;100 000 enfants de moins de 15 ans qui ont eu des cas de PFA en "&amp;'1-General'!B3&amp;")"</f>
+        <v>Surveillance PFA
+(pour les communes comptant &gt;100 000 enfants de moins de 15 ans OU les communes comptant &lt;100 000 enfants de moins de 15 ans qui ont eu des cas de PFA en 2024)</v>
       </c>
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
       <c r="M1" s="62"/>
       <c r="N1" s="62"/>
-      <c r="O1" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" s="15" t="str">
+        <f>"Recherche institutionnelle active
+(pour les communes comptant &lt;100 000 enfants de moins de 15 ans SANS cas de PFA en "&amp;'1-General'!B3&amp;")"</f>
+        <v>Recherche institutionnelle active
+(pour les communes comptant &lt;100 000 enfants de moins de 15 ans SANS cas de PFA en 2024)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="121" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="56"/>
@@ -1917,29 +1917,30 @@
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
       <c r="H2" s="58"/>
-      <c r="I2" s="15" t="s">
-        <v>27</v>
+      <c r="I2" s="15" t="str">
+        <f>"Pourcentage d'unités notificatrices qui ont envoyé des informations toutes les semaines au cours de la période évaluée ("&amp;'1-General'!B3&amp;")"</f>
+        <v>Pourcentage d'unités notificatrices qui ont envoyé des informations toutes les semaines au cours de la période évaluée (2024)</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="O2" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="2"/>
@@ -1956,7 +1957,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="2"/>
@@ -1973,7 +1974,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="2"/>
@@ -1990,7 +1991,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="2"/>
@@ -2007,7 +2008,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="2"/>
@@ -2024,7 +2025,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="2"/>
@@ -2070,17 +2071,17 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="10" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>15</v>
       </c>
@@ -2102,17 +2103,18 @@
       <c r="G1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="57" t="s">
-        <v>23</v>
+      <c r="H1" s="57" t="str">
+        <f>"Si la population de moins de 15 ans est &lt;100 000 habitants, y a-t-il eu des cas de PFA en "&amp;'1-General'!B3&amp;"?"</f>
+        <v>Si la population de moins de 15 ans est &lt;100 000 habitants, y a-t-il eu des cas de PFA en 2024?</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="56"/>
@@ -2122,13 +2124,13 @@
       <c r="G2" s="56"/>
       <c r="H2" s="58"/>
       <c r="I2" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="2"/>
@@ -2140,7 +2142,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="2"/>
@@ -2152,7 +2154,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="2"/>
@@ -2164,7 +2166,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="2"/>
@@ -2176,7 +2178,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="2"/>
@@ -2188,7 +2190,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="2"/>
@@ -2227,11 +2229,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5205DBED-7CB8-CA49-87DC-8975752A1842}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="7" width="13.83203125" customWidth="1"/>
@@ -2239,7 +2241,7 @@
     <col min="9" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>15</v>
       </c>
@@ -2247,7 +2249,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D1" s="55" t="s">
         <v>18</v>
@@ -2261,11 +2263,12 @@
       <c r="G1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="57" t="s">
-        <v>23</v>
+      <c r="H1" s="57" t="str">
+        <f>"Si la population de moins de 15 ans est &lt;100 000 habitants, y a-t-il eu des cas de PFA en "&amp;'1-General'!B3&amp;"?"</f>
+        <v>Si la population de moins de 15 ans est &lt;100 000 habitants, y a-t-il eu des cas de PFA en 2024?</v>
       </c>
       <c r="I1" s="63" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="J1" s="64"/>
       <c r="K1" s="64"/>
@@ -2273,7 +2276,7 @@
       <c r="M1" s="64"/>
       <c r="N1" s="64"/>
     </row>
-    <row r="2" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60"/>
       <c r="B2" s="60"/>
       <c r="C2" s="56"/>
@@ -2286,22 +2289,22 @@
         <v>7</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="2"/>
@@ -2317,7 +2320,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="2"/>
@@ -2333,7 +2336,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="2"/>
@@ -2349,7 +2352,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="2"/>
@@ -2365,7 +2368,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="2"/>
@@ -2381,7 +2384,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="2"/>
@@ -2438,9 +2441,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2448,47 +2451,47 @@
         <v>4</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C4" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
@@ -2502,11 +2505,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24261340-693F-D844-8FDC-79D93DCEE3FF}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="11" customWidth="1"/>
@@ -2515,26 +2518,26 @@
     <col min="5" max="5" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="73" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>15</v>
@@ -2543,7 +2546,7 @@
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="74"/>
       <c r="B3" s="22" t="s">
         <v>16</v>
@@ -2552,340 +2555,340 @@
       <c r="D3" s="25"/>
       <c r="E3" s="26"/>
     </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
       <c r="B4" s="27" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="74"/>
       <c r="B5" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="75"/>
       <c r="B6" s="31" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E6" s="34"/>
     </row>
-    <row r="7" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="75"/>
       <c r="B7" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E7" s="34"/>
     </row>
-    <row r="8" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="76"/>
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E8" s="35"/>
     </row>
-    <row r="9" spans="1:5" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="78" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="77" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="78"/>
       <c r="B10" s="28" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E10" s="39"/>
     </row>
-    <row r="11" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="78"/>
       <c r="B11" s="28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="79"/>
       <c r="B12" s="32" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>55</v>
-      </c>
       <c r="C13" s="28" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="66"/>
       <c r="B14" s="28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="66"/>
       <c r="B15" s="28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="66"/>
       <c r="B16" s="28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>80</v>
-      </c>
       <c r="E16" s="40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="66"/>
       <c r="B17" s="28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="66"/>
       <c r="B18" s="28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="145" thickBot="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="67"/>
       <c r="B19" s="42" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="177" thickBot="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="68" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="69"/>
       <c r="B21" s="47" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="70" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E22" s="48"/>
     </row>
-    <row r="23" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="71"/>
       <c r="B23" s="49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E23" s="39"/>
     </row>
-    <row r="24" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="71"/>
       <c r="B24" s="49" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E24" s="39"/>
     </row>
-    <row r="25" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="71"/>
       <c r="B25" s="49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E25" s="39"/>
     </row>
-    <row r="26" spans="1:5" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="72"/>
       <c r="B26" s="47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E26" s="50"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B27" s="51"/>
       <c r="C27" s="52"/>
